--- a/formats/suite.xlsx
+++ b/formats/suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test Google Search</t>
   </si>
@@ -28,6 +28,27 @@
   </si>
   <si>
     <t xml:space="preserve">    Quit</t>
+  </si>
+  <si>
+    <t>Google Search For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Go To Page  http://google.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fill Input By Name  q  $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Click Element By Name  btnG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pick First Search Result  =&gt; $return</t>
+  </si>
+  <si>
+    <t>Pick First Search Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Get Text Content Of First Tag  h3  =&gt; $return</t>
   </si>
 </sst>
 </file>
@@ -366,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +417,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
